--- a/data/login.xlsx
+++ b/data/login.xlsx
@@ -1,158 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\demo\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3785E021-0DCA-4289-9AE6-A46E8FFE1021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4850" yWindow="-100" windowWidth="14400" windowHeight="7370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10420" windowWidth="19420" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="登录" sheetId="1" r:id="rId1"/>
+    <sheet name="登录" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>登录测试用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行步骤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>open_browser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>open</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sleep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建浏览器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问百度首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入搜索条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击百度一下按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强制等待3秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭浏览器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type=Chrome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url=https://www.baidu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name=xpath;value=//input[@id="kw"];txt=testljj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name=id;value=su</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>断言预期与实际是否一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assert_text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name=link_text;value=更多;expect=更多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -165,27 +60,91 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="7">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -451,142 +410,203 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="40.83203125" customWidth="1"/>
-    <col min="4" max="4" width="42.83203125" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" style="4" width="13.1640625"/>
+    <col customWidth="1" max="3" min="3" style="4" width="40.83203125"/>
+    <col customWidth="1" max="4" min="4" style="4" width="42.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>登录测试用例</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>编号</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>执行步骤</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>参数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>用例描述</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>open_browser</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>type=Chrome</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>创建浏览器</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>url=https://www.baidu.com</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>访问百度首页</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>name=xpath;value=//input[@id="kw"];txt=testljj</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>输入内容</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>name=id;value=su</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>点击百度一下按钮</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>time=3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>强制等待3秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>assert_text</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>name=link_text;value=更多;expect=更多</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>断言预期与实际是否一致</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>quit</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>关闭浏览器</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>